--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H2">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I2">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J2">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N2">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q2">
-        <v>33.51792363041357</v>
+        <v>80.97420017726579</v>
       </c>
       <c r="R2">
-        <v>33.51792363041357</v>
+        <v>728.7678015953921</v>
       </c>
       <c r="S2">
-        <v>0.3396958247117809</v>
+        <v>0.2851796223942777</v>
       </c>
       <c r="T2">
-        <v>0.3396958247117809</v>
+        <v>0.2851796223942777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H3">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I3">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J3">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N3">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q3">
-        <v>20.14815084211239</v>
+        <v>47.87119737534044</v>
       </c>
       <c r="R3">
-        <v>20.14815084211239</v>
+        <v>430.840776378064</v>
       </c>
       <c r="S3">
-        <v>0.2041965007199429</v>
+        <v>0.1685955521780431</v>
       </c>
       <c r="T3">
-        <v>0.2041965007199429</v>
+        <v>0.1685955521780431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H4">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I4">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J4">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N4">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q4">
-        <v>12.63406274007459</v>
+        <v>31.82452562651557</v>
       </c>
       <c r="R4">
-        <v>12.63406274007459</v>
+        <v>286.4207306386401</v>
       </c>
       <c r="S4">
-        <v>0.1280430855226298</v>
+        <v>0.1120814553423006</v>
       </c>
       <c r="T4">
-        <v>0.1280430855226298</v>
+        <v>0.1120814553423006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H5">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I5">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J5">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N5">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q5">
-        <v>0.08674006687939856</v>
+        <v>0.2106369342133333</v>
       </c>
       <c r="R5">
-        <v>0.08674006687939856</v>
+        <v>1.89573240792</v>
       </c>
       <c r="S5">
-        <v>0.0008790890175373542</v>
+        <v>0.0007418333398754794</v>
       </c>
       <c r="T5">
-        <v>0.0008790890175373542</v>
+        <v>0.0007418333398754794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H6">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I6">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J6">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N6">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q6">
-        <v>16.29955746105203</v>
+        <v>24.29250494347378</v>
       </c>
       <c r="R6">
-        <v>16.29955746105203</v>
+        <v>218.632544491264</v>
       </c>
       <c r="S6">
-        <v>0.1651919634170016</v>
+        <v>0.08555474918708733</v>
       </c>
       <c r="T6">
-        <v>0.1651919634170016</v>
+        <v>0.08555474918708733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H7">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I7">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J7">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N7">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q7">
-        <v>9.797920241305315</v>
+        <v>14.36150398947644</v>
       </c>
       <c r="R7">
-        <v>9.797920241305315</v>
+        <v>129.253535905288</v>
       </c>
       <c r="S7">
-        <v>0.09929948625488273</v>
+        <v>0.05057917553698396</v>
       </c>
       <c r="T7">
-        <v>0.09929948625488273</v>
+        <v>0.05057917553698396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H8">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I8">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J8">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N8">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q8">
-        <v>6.143866006411128</v>
+        <v>9.547453934875557</v>
       </c>
       <c r="R8">
-        <v>6.143866006411128</v>
+        <v>85.92708541388001</v>
       </c>
       <c r="S8">
-        <v>0.06226655484329453</v>
+        <v>0.03362477557066387</v>
       </c>
       <c r="T8">
-        <v>0.06226655484329453</v>
+        <v>0.03362477557066387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1058106666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.317432</v>
+      </c>
+      <c r="I9">
+        <v>0.1699812525402246</v>
+      </c>
+      <c r="J9">
+        <v>0.1699812525402246</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.791645</v>
+      </c>
+      <c r="O9">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P9">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q9">
+        <v>0.06319171729333332</v>
+      </c>
+      <c r="R9">
+        <v>0.56872545564</v>
+      </c>
+      <c r="S9">
+        <v>0.0002225522454894009</v>
+      </c>
+      <c r="T9">
+        <v>0.0002225522454894009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.126001</v>
+      </c>
+      <c r="I10">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J10">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N10">
+        <v>688.753952</v>
+      </c>
+      <c r="O10">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P10">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q10">
+        <v>9.642631856216889</v>
+      </c>
+      <c r="R10">
+        <v>86.78368670595201</v>
+      </c>
+      <c r="S10">
+        <v>0.03395997867991314</v>
+      </c>
+      <c r="T10">
+        <v>0.03395997867991315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.126001</v>
+      </c>
+      <c r="I11">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J11">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N11">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P11">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q11">
+        <v>5.700634668773221</v>
+      </c>
+      <c r="R11">
+        <v>51.30571201895899</v>
+      </c>
+      <c r="S11">
+        <v>0.02007682494781722</v>
+      </c>
+      <c r="T11">
+        <v>0.02007682494781722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.126001</v>
+      </c>
+      <c r="I12">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J12">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N12">
+        <v>270.694465</v>
+      </c>
+      <c r="O12">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P12">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q12">
+        <v>3.789752587162778</v>
+      </c>
+      <c r="R12">
+        <v>34.107773284465</v>
+      </c>
+      <c r="S12">
+        <v>0.01334696989175388</v>
+      </c>
+      <c r="T12">
+        <v>0.01334696989175388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.072349762077276</v>
-      </c>
-      <c r="H9">
-        <v>0.072349762077276</v>
-      </c>
-      <c r="I9">
-        <v>0.3271855000281089</v>
-      </c>
-      <c r="J9">
-        <v>0.3271855000281089</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="N9">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="O9">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="P9">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="Q9">
-        <v>0.04218115417487775</v>
-      </c>
-      <c r="R9">
-        <v>0.04218115417487775</v>
-      </c>
-      <c r="S9">
-        <v>0.0004274955129299303</v>
-      </c>
-      <c r="T9">
-        <v>0.0004274955129299303</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.126001</v>
+      </c>
+      <c r="I13">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J13">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.791645</v>
+      </c>
+      <c r="O13">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P13">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q13">
+        <v>0.02508322907166666</v>
+      </c>
+      <c r="R13">
+        <v>0.225749061645</v>
+      </c>
+      <c r="S13">
+        <v>8.833956716370751E-05</v>
+      </c>
+      <c r="T13">
+        <v>8.833956716370753E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.365924</v>
+      </c>
+      <c r="I14">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J14">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N14">
+        <v>688.753952</v>
+      </c>
+      <c r="O14">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P14">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q14">
+        <v>28.00351123684978</v>
+      </c>
+      <c r="R14">
+        <v>252.031601131648</v>
+      </c>
+      <c r="S14">
+        <v>0.09862438582605326</v>
+      </c>
+      <c r="T14">
+        <v>0.09862438582605328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.365924</v>
+      </c>
+      <c r="I15">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J15">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N15">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P15">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q15">
+        <v>16.55541654856844</v>
+      </c>
+      <c r="R15">
+        <v>148.998748937116</v>
+      </c>
+      <c r="S15">
+        <v>0.05830582370143942</v>
+      </c>
+      <c r="T15">
+        <v>0.05830582370143943</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.365924</v>
+      </c>
+      <c r="I16">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J16">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N16">
+        <v>270.694465</v>
+      </c>
+      <c r="O16">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P16">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q16">
+        <v>11.00595571229556</v>
+      </c>
+      <c r="R16">
+        <v>99.05360141066001</v>
+      </c>
+      <c r="S16">
+        <v>0.03876141150205273</v>
+      </c>
+      <c r="T16">
+        <v>0.03876141150205274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.365924</v>
+      </c>
+      <c r="I17">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J17">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.791645</v>
+      </c>
+      <c r="O17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q17">
+        <v>0.07284510055333332</v>
+      </c>
+      <c r="R17">
+        <v>0.6556059049799999</v>
+      </c>
+      <c r="S17">
+        <v>0.0002565500890851065</v>
+      </c>
+      <c r="T17">
+        <v>0.0002565500890851066</v>
       </c>
     </row>
   </sheetData>
